--- a/Result/ANOVAf-testBasedResult.xlsx
+++ b/Result/ANOVAf-testBasedResult.xlsx
@@ -471,28 +471,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7433628318584071</v>
+        <v>0.7389380530973452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7428123775949862</v>
+        <v>0.7386212299255777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7430607636284852</v>
+        <v>0.7388306138811468</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7428121736404301</v>
+        <v>0.7386211619767274</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7433628318584071</v>
+        <v>0.7389380530973452</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7422619233315655</v>
+        <v>0.7383044067538104</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2577380766684345</v>
+        <v>0.2616955932461896</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2566371681415929</v>
+        <v>0.2610619469026548</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -695,28 +695,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7654867256637168</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7647081864473169</v>
+        <v>0.7511946729338034</v>
       </c>
       <c r="E9" t="n">
-        <v>0.764947741769609</v>
+        <v>0.7512762378410005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7647077901370124</v>
+        <v>0.7511939835337859</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7654867256637168</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7639296472309171</v>
+        <v>0.7501769564870757</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2360703527690829</v>
+        <v>0.2498230435129243</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2345132743362832</v>
+        <v>0.2477876106194691</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -759,28 +759,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7300884955752213</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7299255777516647</v>
+        <v>0.7342734038386212</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7300620600984995</v>
+        <v>0.7344508558271146</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7299255595702101</v>
+        <v>0.7342733646584896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7300884955752213</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7297626599281082</v>
+        <v>0.7340335333409592</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2702373400718918</v>
+        <v>0.2659664666590408</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2699115044247787</v>
+        <v>0.2654867256637168</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -823,28 +823,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5176991150442478</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5206032119075598</v>
+        <v>0.4947512730121426</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5044929465027019</v>
+        <v>0.4515815610493361</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5205951118382461</v>
+        <v>0.4947234308299361</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5176991150442478</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5235073087708716</v>
+        <v>0.4895025460242852</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4764926912291284</v>
+        <v>0.5104974539757148</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4823008849557522</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
